--- a/biology/Zoologie/Haplochelifer_philipi/Haplochelifer_philipi.xlsx
+++ b/biology/Zoologie/Haplochelifer_philipi/Haplochelifer_philipi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplochelifer philipi, unique représentant du genre Haplochelifer, est une espèce de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Californie, au Nevada, en Arizona, au Nouveau-Mexique, au Colorado, en Idaho, en Utah et en Oregon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Californie, au Nevada, en Arizona, au Nouveau-Mexique, au Colorado, en Idaho, en Utah et en Oregon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Philip Chamberlin, le frère de Joseph Conrad Chamberlin[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Philip Chamberlin, le frère de Joseph Conrad Chamberlin.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1923 : New and little known pseudoscorpions, principally from the islands and adjacent shores of the Gulf of California. Proceedings of the California Academy of Sciences, sér. 4, vol. 12, no 17, p. 353-387 (texte intégral).
 Chamberlin, 1932 : A synoptic revision of the generic classification of the chelonethid family Cheliferidae Simon (Arachnida) (continued). Canadian Entomologist, vol. 64, p. 17-21 &amp; 35-39.</t>
